--- a/web/data/демография/смертность/шаблон загрузки.xlsx
+++ b/web/data/демография/смертность/шаблон загрузки.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="15255" windowHeight="7695"/>
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>все население</t>
-  </si>
-  <si>
-    <t>в том числе:</t>
-  </si>
-  <si>
-    <t>городское</t>
-  </si>
-  <si>
-    <t>сельское</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Всего по области</t>
   </si>
@@ -150,20 +138,23 @@
     <t>Энгельсский</t>
   </si>
   <si>
-    <t>Число умерших</t>
-  </si>
-  <si>
-    <t>На 1000 населения</t>
-  </si>
-  <si>
     <t>Умершие дети до 1 года</t>
+  </si>
+  <si>
+    <t>Все население</t>
+  </si>
+  <si>
+    <t>Городское</t>
+  </si>
+  <si>
+    <t>Сельское</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -197,17 +188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -228,75 +208,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -415,6 +336,21 @@
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -426,79 +362,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,6 +430,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -584,6 +513,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -618,6 +548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -793,492 +724,479 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:6" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A4" s="13" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A5" s="13" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="1" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="1" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="1" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="1" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75">
-      <c r="A37" s="1" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75">
-      <c r="A38" s="1" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="1" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75">
-      <c r="A40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75">
-      <c r="A42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="24"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
